--- a/tables/divorce_table_Accuracy_F1_Score_classifiers_ratios.xlsx
+++ b/tables/divorce_table_Accuracy_F1_Score_classifiers_ratios.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>0.98</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D3" t="n">
         <v>0.98</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         <v>0.98</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D4" t="n">
         <v>0.98</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>0.98</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D5" t="n">
         <v>0.98</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>0.98</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D6" t="n">
         <v>0.98</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
